--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463767.1684465799</v>
+        <v>467078.1130695313</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346306</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970761</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7634254.121373885</v>
+        <v>7579054.634363696</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>333.4895698350423</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>80.04750815110098</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -795,13 +797,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>220.3146016126434</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734891</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864692</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -896,7 +898,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>93.76149455263254</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>356.8569451759032</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>30.94910560596974</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>142.7801127870463</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1230,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>7.755913384879197</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1312,7 +1314,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>134.1713099644706</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>3.781690536921269</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -1433,7 +1435,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>235.4551847859264</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1622,10 +1624,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>292.7899906785036</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>393.0498909579815</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>312.5773721532817</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.0116202804579</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>97.61153143263792</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -2093,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.6203742018776</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>142.3394141090591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>152.7855877686576</v>
+        <v>87.95308749070814</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>304.0074039714625</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>240.20623200167</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>165.6158245190442</v>
+        <v>11.6920589909238</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2555,10 +2557,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>301.8024328110156</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>96.55283411937401</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -2725,13 +2727,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.6663781598623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>267.5504996888536</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2804,7 +2806,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>316.5487336740566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8871923638771</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>211.6928685184854</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>279.5348493339614</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>40.26304875849094</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3199,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>23.07869429521006</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>176.7374435315669</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,19 +3268,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>161.4085122120584</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>316.5487336740566</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3430,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>149.9104226965713</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.308920675177417</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3505,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>167.8202982761259</v>
       </c>
       <c r="G38" t="n">
-        <v>316.5487336740566</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -3679,7 +3681,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>262.1813739679208</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>339.9147695566699</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>157.7228447462342</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -3803,10 +3805,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>179.4080122938798</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7688819712507</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>23.04391114827028</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4062,19 +4064,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>127.6630688507511</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>206.6890709537359</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010067</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1162.787751730473</v>
+        <v>1239.092355893942</v>
       </c>
       <c r="C2" t="n">
-        <v>769.6122502334035</v>
+        <v>845.9168543968727</v>
       </c>
       <c r="D2" t="n">
-        <v>384.1711214500713</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="E2" t="n">
-        <v>384.1711214500713</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303753</v>
+        <v>2284.792436237683</v>
       </c>
       <c r="U2" t="n">
-        <v>1905.389306738351</v>
+        <v>2029.039706672282</v>
       </c>
       <c r="V2" t="n">
-        <v>1563.28249744187</v>
+        <v>2029.039706672282</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.28249744187</v>
+        <v>2029.039706672282</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.28249744187</v>
+        <v>1639.587101605339</v>
       </c>
       <c r="Y2" t="n">
-        <v>1563.28249744187</v>
+        <v>1639.587101605339</v>
       </c>
     </row>
     <row r="3">
@@ -4401,13 +4403,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K3" t="n">
         <v>367.0521161637701</v>
@@ -4416,37 +4418,37 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M3" t="n">
-        <v>1436.116207068686</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N3" t="n">
-        <v>1725.662044805892</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D4" t="n">
-        <v>2264.291529939333</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E4" t="n">
-        <v>2108.732717798535</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F4" t="n">
-        <v>1951.406783011508</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G4" t="n">
-        <v>1783.152729110954</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H4" t="n">
-        <v>1627.674178072448</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>1494.579752709526</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.396020535053</v>
+        <v>578.8255885061482</v>
       </c>
       <c r="C5" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="D5" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="E5" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F5" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
         <v>406.2953261290054</v>
@@ -4580,37 +4582,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S5" t="n">
-        <v>2270.939924720986</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T5" t="n">
-        <v>2270.939924720986</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U5" t="n">
-        <v>2270.939924720986</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V5" t="n">
-        <v>1928.833115424504</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W5" t="n">
-        <v>1557.834080392792</v>
+        <v>979.320334217545</v>
       </c>
       <c r="X5" t="n">
-        <v>1168.381475325849</v>
+        <v>979.320334217545</v>
       </c>
       <c r="Y5" t="n">
-        <v>771.8907662464499</v>
+        <v>979.320334217545</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L6" t="n">
-        <v>530.879055999857</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4689,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4720,16 +4722,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>835.3376237683314</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C8" t="n">
-        <v>835.3376237683314</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D8" t="n">
-        <v>449.8964949849991</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U8" t="n">
-        <v>2334.386782242867</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="V8" t="n">
-        <v>1992.279972946386</v>
+        <v>1997.925566488064</v>
       </c>
       <c r="W8" t="n">
-        <v>1621.280937914673</v>
+        <v>1626.926531456352</v>
       </c>
       <c r="X8" t="n">
-        <v>1231.82833284773</v>
+        <v>1237.473926389409</v>
       </c>
       <c r="Y8" t="n">
-        <v>835.3376237683314</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
         <v>2341.731461975244</v>
@@ -4923,10 +4925,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>335.8859465029717</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1252.232062238354</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C11" t="n">
-        <v>1252.232062238354</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D11" t="n">
-        <v>866.7909334550213</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E11" t="n">
-        <v>464.2074085715658</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>2118.077574438405</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U11" t="n">
-        <v>2361.828615645947</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V11" t="n">
-        <v>2019.721806349465</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W11" t="n">
-        <v>1648.722771317752</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="X11" t="n">
-        <v>1648.722771317752</v>
+        <v>579.3302549026299</v>
       </c>
       <c r="Y11" t="n">
-        <v>1252.232062238354</v>
+        <v>182.839545823231</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5114,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631986</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N12" t="n">
         <v>1443.506853769801</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1575.70115429884</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="C14" t="n">
-        <v>1575.70115429884</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.70115429884</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E14" t="n">
-        <v>1173.117629415384</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F14" t="n">
-        <v>756.2231909453623</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G14" t="n">
-        <v>343.0604354333654</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L14" t="n">
-        <v>318.7636682303387</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749193</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.575851912381</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X14" t="n">
-        <v>1976.195900010237</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y14" t="n">
-        <v>1976.195900010237</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5351,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
         <v>367.0521161637701</v>
@@ -5364,16 +5366,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M15" t="n">
-        <v>1436.116207068686</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N15" t="n">
-        <v>1960.027136360782</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5431,16 +5433,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1575.70115429884</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C17" t="n">
-        <v>1182.525652801771</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D17" t="n">
-        <v>1182.525652801771</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E17" t="n">
-        <v>779.942127918315</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F17" t="n">
-        <v>363.0476894482928</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
         <v>406.2953261290054</v>
@@ -5528,37 +5530,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.382220452829</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>1601.275411156347</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>1230.276376124635</v>
       </c>
       <c r="X17" t="n">
-        <v>1976.195900010237</v>
+        <v>840.8237710576915</v>
       </c>
       <c r="Y17" t="n">
-        <v>1976.195900010237</v>
+        <v>444.3330619782926</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154367</v>
+        <v>140.077671309995</v>
       </c>
       <c r="L18" t="n">
-        <v>530.879055999857</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O18" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>850.162486145482</v>
       </c>
       <c r="U19" t="n">
-        <v>713.0409408113302</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="V19" t="n">
-        <v>447.0615956321544</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W19" t="n">
-        <v>447.0615956321544</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X19" t="n">
-        <v>212.9812734151375</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.9812734151375</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1164.818808418026</v>
+        <v>1226.556240989903</v>
       </c>
       <c r="C20" t="n">
-        <v>771.6433069209571</v>
+        <v>833.3807394928331</v>
       </c>
       <c r="D20" t="n">
-        <v>386.2021781376249</v>
+        <v>447.9396107095008</v>
       </c>
       <c r="E20" t="n">
-        <v>386.2021781376249</v>
+        <v>447.9396107095008</v>
       </c>
       <c r="F20" t="n">
-        <v>386.2021781376249</v>
+        <v>447.9396107095008</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="X20" t="n">
-        <v>1565.313554129423</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="Y20" t="n">
-        <v>1565.313554129423</v>
+        <v>1627.0509867013</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415745</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016667</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.935755423147</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.997640489031</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>858.0088487631991</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.4752876825358</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.5868050664922</v>
+        <v>306.3595905514212</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5868050664922</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="D22" t="n">
-        <v>543.2579285324946</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="E22" t="n">
-        <v>387.699116391697</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="F22" t="n">
-        <v>230.37318160467</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>697.5868050664922</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>697.5868050664922</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X22" t="n">
-        <v>697.5868050664922</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y22" t="n">
-        <v>697.5868050664922</v>
+        <v>491.5676092427225</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2073.376476849992</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C23" t="n">
-        <v>1680.200975352922</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.75984656959</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E23" t="n">
-        <v>892.1763216861347</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F23" t="n">
-        <v>475.2818832161124</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>358.4764287842798</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>851.7967205028086</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V23" t="n">
-        <v>2863.323827628332</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W23" t="n">
-        <v>2863.323827628332</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X23" t="n">
-        <v>2473.871222561389</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y23" t="n">
-        <v>2473.871222561389</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L24" t="n">
-        <v>175.2341099238429</v>
+        <v>272.5108437565966</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>858.0088487631987</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2530.34759369572</v>
+        <v>1945.518264605629</v>
       </c>
       <c r="C25" t="n">
-        <v>2360.142475761709</v>
+        <v>1775.313146671618</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W25" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X25" t="n">
-        <v>2938.667673570378</v>
+        <v>2353.838344480287</v>
       </c>
       <c r="Y25" t="n">
-        <v>2715.555612387021</v>
+        <v>2130.72628329693</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>825.9296003819453</v>
+        <v>1089.409718280399</v>
       </c>
       <c r="C26" t="n">
-        <v>432.7540988848759</v>
+        <v>1089.409718280399</v>
       </c>
       <c r="D26" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M26" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N26" t="n">
-        <v>1577.42141205333</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="O26" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511779</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V26" t="n">
-        <v>2109.895775511779</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="W26" t="n">
-        <v>2012.367660239684</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="X26" t="n">
-        <v>1622.915055172741</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="Y26" t="n">
-        <v>1226.424346093342</v>
+        <v>1489.904463991796</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6299,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J27" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K27" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L27" t="n">
-        <v>963.7331842818107</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M27" t="n">
-        <v>1549.231189288413</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N27" t="n">
-        <v>1849.128222486198</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O27" t="n">
-        <v>2365.648505077179</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
         <v>2365.648505077179</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2133.302730668846</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C28" t="n">
-        <v>1963.097612734835</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D28" t="n">
-        <v>1807.46449963735</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E28" t="n">
-        <v>1651.905687496553</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F28" t="n">
-        <v>1494.579752709526</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G28" t="n">
-        <v>1494.579752709526</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H28" t="n">
-        <v>1494.579752709526</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I28" t="n">
-        <v>1494.579752709526</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y28" t="n">
-        <v>2318.510749360148</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1645.407563735423</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C29" t="n">
-        <v>1252.232062238354</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D29" t="n">
-        <v>866.7909334550213</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E29" t="n">
-        <v>464.2074085715658</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K29" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L29" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M29" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N29" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O29" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.382220452829</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.382220452829</v>
       </c>
       <c r="W29" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.382220452829</v>
       </c>
       <c r="X29" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.382220452829</v>
       </c>
       <c r="Y29" t="n">
-        <v>2045.90230944682</v>
+        <v>1943.382220452829</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.648505077179</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.31297010154361</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6643,28 +6645,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>466.6013110098618</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>466.6013110098618</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V31" t="n">
-        <v>466.6013110098618</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W31" t="n">
-        <v>466.6013110098618</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X31" t="n">
-        <v>232.5209887928449</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="Y31" t="n">
-        <v>232.5209887928449</v>
+        <v>217.5180880355544</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1886.395173071196</v>
+        <v>866.5993466026432</v>
       </c>
       <c r="C32" t="n">
-        <v>1886.395173071196</v>
+        <v>473.4238451055738</v>
       </c>
       <c r="D32" t="n">
-        <v>1604.036739400527</v>
+        <v>87.98271632224152</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.453214517072</v>
+        <v>87.98271632224152</v>
       </c>
       <c r="F32" t="n">
-        <v>784.5587760470498</v>
+        <v>87.98271632224152</v>
       </c>
       <c r="G32" t="n">
-        <v>371.396020535053</v>
+        <v>87.98271632224152</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T32" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U32" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V32" t="n">
-        <v>1886.395173071196</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="W32" t="n">
-        <v>1886.395173071196</v>
+        <v>1652.542660748985</v>
       </c>
       <c r="X32" t="n">
-        <v>1886.395173071196</v>
+        <v>1263.090055682042</v>
       </c>
       <c r="Y32" t="n">
-        <v>1886.395173071196</v>
+        <v>866.5993466026432</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F33" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K33" t="n">
-        <v>194.5661265746817</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L33" t="n">
-        <v>678.132212472995</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.630217479597</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.128222486199</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O33" t="n">
-        <v>2365.64850507718</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6822,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>534.5182705774242</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="C34" t="n">
-        <v>534.5182705774242</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="D34" t="n">
-        <v>534.5182705774242</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="E34" t="n">
-        <v>534.5182705774242</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="F34" t="n">
-        <v>534.5182705774242</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="G34" t="n">
-        <v>366.2642166768698</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="H34" t="n">
-        <v>210.7856656383638</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544166</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6880,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T34" t="n">
-        <v>713.0409408113302</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U34" t="n">
-        <v>713.0409408113302</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V34" t="n">
-        <v>713.0409408113302</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="W34" t="n">
-        <v>534.5182705774242</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="X34" t="n">
-        <v>534.5182705774242</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="Y34" t="n">
-        <v>534.5182705774242</v>
+        <v>70.62478252094769</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1965.153759365783</v>
+        <v>210.351871325845</v>
       </c>
       <c r="C35" t="n">
-        <v>1571.978257868714</v>
+        <v>210.351871325845</v>
       </c>
       <c r="D35" t="n">
-        <v>1186.537129085382</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E35" t="n">
-        <v>783.9536042019261</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F35" t="n">
-        <v>367.0591657319038</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K35" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L35" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M35" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N35" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O35" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.64850507718</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X35" t="n">
-        <v>2365.64850507718</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y35" t="n">
-        <v>2365.64850507718</v>
+        <v>610.8466170372419</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154343</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154343</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154343</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8790559998569</v>
+        <v>530.8790559998566</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.377061006459</v>
+        <v>1116.377061006458</v>
       </c>
       <c r="N36" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
         <v>2365.648505077179</v>
@@ -7056,10 +7058,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X36" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>356.0635742790467</v>
+        <v>1784.555132309383</v>
       </c>
       <c r="C37" t="n">
-        <v>356.0635742790467</v>
+        <v>1784.555132309383</v>
       </c>
       <c r="D37" t="n">
-        <v>356.0635742790467</v>
+        <v>1784.555132309383</v>
       </c>
       <c r="E37" t="n">
-        <v>204.6389048885707</v>
+        <v>1628.996320168585</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1628.996320168585</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1628.996320168585</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1627.674178072447</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1494.579752709525</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="S37" t="n">
-        <v>622.0429194582225</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="T37" t="n">
-        <v>622.0429194582225</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="U37" t="n">
-        <v>622.0429194582225</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="V37" t="n">
-        <v>356.0635742790467</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="W37" t="n">
-        <v>356.0635742790467</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="X37" t="n">
-        <v>356.0635742790467</v>
+        <v>2007.66719349274</v>
       </c>
       <c r="Y37" t="n">
-        <v>356.0635742790467</v>
+        <v>1784.555132309383</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1965.153759365783</v>
+        <v>216.8284229057112</v>
       </c>
       <c r="C38" t="n">
-        <v>1571.978257868714</v>
+        <v>216.8284229057112</v>
       </c>
       <c r="D38" t="n">
-        <v>1186.537129085382</v>
+        <v>216.8284229057112</v>
       </c>
       <c r="E38" t="n">
-        <v>783.9536042019261</v>
+        <v>216.8284229057112</v>
       </c>
       <c r="F38" t="n">
-        <v>367.0591657319038</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L38" t="n">
-        <v>318.7636682303387</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M38" t="n">
-        <v>864.7645682749193</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N38" t="n">
-        <v>1392.575851912381</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.64850507718</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.64850507718</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X38" t="n">
-        <v>2365.64850507718</v>
+        <v>617.3231686171081</v>
       </c>
       <c r="Y38" t="n">
-        <v>2365.64850507718</v>
+        <v>617.3231686171081</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154434</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637708</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>850.618202062084</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1436.116207068686</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N39" t="n">
-        <v>2021.614212075288</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O39" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.7599926430961</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="C40" t="n">
-        <v>948.7599926430961</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="D40" t="n">
-        <v>817.0247473313507</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E40" t="n">
-        <v>661.4659351905532</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F40" t="n">
-        <v>504.1400004035262</v>
+        <v>371.045575040604</v>
       </c>
       <c r="G40" t="n">
-        <v>335.8859465029718</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H40" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7366,16 +7368,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="W40" t="n">
-        <v>948.7599926430961</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="X40" t="n">
-        <v>948.7599926430961</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.7599926430961</v>
+        <v>683.9303219684286</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>440.488471598613</v>
+        <v>783.8367236760574</v>
       </c>
       <c r="C41" t="n">
-        <v>47.31297010154361</v>
+        <v>390.661222178988</v>
       </c>
       <c r="D41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>371.4442765563904</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T41" t="n">
-        <v>2206.332500283004</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U41" t="n">
-        <v>1950.579770717603</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V41" t="n">
-        <v>1608.472961421121</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W41" t="n">
-        <v>1237.473926389409</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="X41" t="n">
-        <v>1237.473926389409</v>
+        <v>783.8367236760574</v>
       </c>
       <c r="Y41" t="n">
-        <v>840.9832173100099</v>
+        <v>783.8367236760574</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769802</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7594,25 +7596,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>745.9439088256454</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>745.9439088256454</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V43" t="n">
-        <v>564.7236943873829</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W43" t="n">
-        <v>281.3932923185605</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.70539063419</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="C44" t="n">
-        <v>845.5298891371201</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D44" t="n">
-        <v>845.5298891371201</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E44" t="n">
-        <v>442.9463642536647</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F44" t="n">
-        <v>32.50681249897168</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G44" t="n">
-        <v>32.50681249897168</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K44" t="n">
-        <v>391.4891685264335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>793.7609732012081</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.032777875983</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N44" t="n">
-        <v>1598.304582550757</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O44" t="n">
-        <v>1598.304582550757</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>1625.340624948584</v>
+        <v>2342.371827149634</v>
       </c>
       <c r="T44" t="n">
-        <v>1625.340624948584</v>
+        <v>2118.87122470905</v>
       </c>
       <c r="U44" t="n">
-        <v>1625.340624948584</v>
+        <v>1863.118495143649</v>
       </c>
       <c r="V44" t="n">
-        <v>1625.340624948584</v>
+        <v>1521.011685847167</v>
       </c>
       <c r="W44" t="n">
-        <v>1625.340624948584</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="X44" t="n">
-        <v>1625.340624948584</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="Y44" t="n">
-        <v>1625.340624948584</v>
+        <v>1150.012650815455</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>442.2026051161376</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>291.5483746762299</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>161.4594072977102</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>32.50681249897168</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>32.50681249897168</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>32.50681249897168</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J45" t="n">
-        <v>145.6217947186991</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>465.3609407809255</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>465.3609407809255</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>586.4319240441446</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N45" t="n">
-        <v>988.7037287189191</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O45" t="n">
-        <v>988.7037287189191</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P45" t="n">
-        <v>1390.975533393694</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>1625.340624948584</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>1625.340624948584</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1415.277481627226</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1192.737479998293</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>962.62023413158</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>773.3131564815917</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>593.998939557099</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
-        <v>114.3418536089136</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>278.4694934827133</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
-        <v>464.7610718209773</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>647.9507058521865</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>810.6554728938945</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>930.5316386704731</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>933.953835040524</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>933.953835040524</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S46" t="n">
-        <v>933.953835040524</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T46" t="n">
-        <v>933.953835040524</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U46" t="n">
-        <v>648.515043282425</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V46" t="n">
-        <v>382.5356981032493</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W46" t="n">
-        <v>99.20529603442691</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7991,10 +7993,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8064,13 +8066,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>377.8426560230623</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8228,7 +8230,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8298,13 +8300,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>415.8062469585531</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8453,10 +8455,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,22 +8534,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>502.5559668112513</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8702,7 +8704,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>399.6354845339704</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P11" t="n">
         <v>150.3014472409252</v>
@@ -8772,13 +8774,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M12" t="n">
-        <v>422.8212561536975</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>427.440794103012</v>
+        <v>281.329912376922</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -9012,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>614.5750717350721</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9176,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>183.2986537257085</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600592</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9486,16 +9488,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>422.821256153698</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234616</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011931</v>
       </c>
       <c r="L23" t="n">
         <v>651.5514946987026</v>
@@ -9653,10 +9655,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>317.5329465084869</v>
       </c>
       <c r="M24" t="n">
-        <v>489.2920096079789</v>
+        <v>683.7992483186068</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234616</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9875,25 +9877,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
-        <v>682.2612020826953</v>
+        <v>540.0265064010104</v>
       </c>
       <c r="O26" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9951,25 +9953,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N27" t="n">
-        <v>388.298409013546</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10112,7 +10114,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10124,10 +10126,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P29" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10188,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,7 +10199,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046925</v>
+        <v>577.0069902189988</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10349,10 +10351,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10361,13 +10363,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10425,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>124.0799396297078</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10589,7 +10591,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>251.5450406822918</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10598,10 +10600,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10671,16 +10673,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585528</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>427.440794103012</v>
+        <v>281.329912376922</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10899,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,19 +10910,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O39" t="n">
-        <v>440.1969457594868</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11060,25 +11062,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>324.3528815085492</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>422.8212561536984</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617826</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11300,19 +11302,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>559.5833259676377</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>556.0602078348734</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>555.4536475749302</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P44" t="n">
-        <v>177.610580976104</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
         <v>144.4986984183922</v>
@@ -11379,22 +11381,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>214.681044537412</v>
+        <v>577.0069902189988</v>
       </c>
       <c r="N45" t="n">
-        <v>491.7072690913127</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>493.4185210564607</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22556,10 +22558,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>79.23592425027965</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22592,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>141.2180882650765</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22708,7 +22710,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004117</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -22799,10 +22801,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>71.0869249557274</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>10.4320995054922</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -23072,13 +23074,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>222.2460966637776</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>195.9056284164704</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23182,7 +23184,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>146.3208685816312</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23200,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>262.3184882898123</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>409.0311279568768</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>249.4135117328261</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>153.7885616961723</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>28.05222925067068</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3.439907296301385</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>96.45375580359519</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23780,25 +23782,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.34431822393032</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23941,16 +23943,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>12.41075375499923</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>243.2186649072146</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.291194197852803</v>
+        <v>66.12369447580225</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24184,16 +24186,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>92.48239428282045</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24263,13 +24265,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>98.47950920184678</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24379,7 +24381,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24427,7 +24429,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>66.12369447580255</v>
+        <v>220.0474600039229</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>79.78428468448334</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -24455,10 +24457,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24494,7 +24496,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,10 +24505,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>270.7362105620214</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.2145624116608</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>128.9392985654293</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -24728,13 +24730,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24746,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>75.97706831454826</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>79.47466894957108</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -24898,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>9.188072053037644</v>
       </c>
     </row>
     <row r="32">
@@ -24917,22 +24919,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>102.0518681615375</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>280.5791711706833</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24968,22 +24970,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25087,16 +25089,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.995793176949014</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>103.7596545165673</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25154,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>220.1782052834405</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>92.48239428282028</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25208,19 +25210,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,22 +25320,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>4.09280132281819</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>152.6148448529435</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
@@ -25369,16 +25371,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>244.9051958091961</v>
       </c>
       <c r="G38" t="n">
-        <v>92.48239428282028</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25439,22 +25441,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25552,7 +25554,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25606,7 +25608,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>1.138177759463247</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>41.67194793882902</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25679,7 +25681,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>63.54275166994324</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25834,22 +25836,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>83.91153943350417</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13.72091628303218</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>6.390337848175932</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25913,19 +25915,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>141.8045083600897</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25950,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>7.41895712947003</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>200.7879229792761</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>56.63048077364809</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.7080202947461</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655450.4938330723</v>
+        <v>655450.4938330719</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655450.4938330725</v>
+        <v>655450.4938330719</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655450.4938330719</v>
+        <v>655450.4938330718</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655450.4938330723</v>
+        <v>655450.4938330724</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738437.5909640793</v>
+        <v>655450.4938330721</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738437.5909640794</v>
+        <v>655450.4938330719</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655450.4938330721</v>
+        <v>655450.4938330718</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655450.4938330725</v>
+        <v>655450.4938330723</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655450.4938330723</v>
+        <v>655450.4938330721</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655450.4938330719</v>
+        <v>655450.4938330723</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>528259.214310674</v>
+        <v>655450.4938330724</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26322,7 @@
         <v>169394.3482070292</v>
       </c>
       <c r="E2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="F2" t="n">
         <v>169394.3482070292</v>
@@ -26329,16 +26331,16 @@
         <v>169394.3482070292</v>
       </c>
       <c r="H2" t="n">
-        <v>190834.012360257</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="I2" t="n">
-        <v>190834.012360257</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="J2" t="n">
         <v>169394.3482070292</v>
       </c>
       <c r="K2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="L2" t="n">
         <v>169394.3482070292</v>
@@ -26347,13 +26349,13 @@
         <v>169394.3482070292</v>
       </c>
       <c r="N2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="O2" t="n">
         <v>169394.3482070293</v>
       </c>
       <c r="P2" t="n">
-        <v>136534.5614395193</v>
+        <v>169394.3482070292</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656033</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="C4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="D4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="E4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="F4" t="n">
+        <v>34799.20444337101</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34799.20444337101</v>
+      </c>
+      <c r="H4" t="n">
         <v>34799.20444337102</v>
       </c>
-      <c r="G4" t="n">
-        <v>34799.20444337102</v>
-      </c>
-      <c r="H4" t="n">
-        <v>39261.69958392654</v>
-      </c>
       <c r="I4" t="n">
-        <v>39261.69958392654</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="J4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.204443371</v>
       </c>
       <c r="K4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="L4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="M4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="N4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.204443371</v>
       </c>
       <c r="O4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="P4" t="n">
-        <v>27959.70184101204</v>
+        <v>34799.20444337101</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133186.1195052599</v>
+        <v>-133186.1195052598</v>
       </c>
       <c r="C6" t="n">
-        <v>65009.68648648501</v>
+        <v>65009.68648648506</v>
       </c>
       <c r="D6" t="n">
-        <v>65009.68648648504</v>
+        <v>65009.68648648509</v>
       </c>
       <c r="E6" t="n">
-        <v>98637.28648648516</v>
+        <v>98637.28648648503</v>
       </c>
       <c r="F6" t="n">
-        <v>98637.28648648504</v>
+        <v>98637.28648648509</v>
       </c>
       <c r="G6" t="n">
+        <v>98637.28648648503</v>
+      </c>
+      <c r="H6" t="n">
+        <v>98637.2864864851</v>
+      </c>
+      <c r="I6" t="n">
+        <v>98637.28648648501</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-56102.1478791183</v>
+      </c>
+      <c r="K6" t="n">
+        <v>98637.28648648509</v>
+      </c>
+      <c r="L6" t="n">
+        <v>98637.28648648509</v>
+      </c>
+      <c r="M6" t="n">
+        <v>98637.28648648506</v>
+      </c>
+      <c r="N6" t="n">
         <v>98637.28648648507</v>
       </c>
-      <c r="H6" t="n">
-        <v>54426.34351379859</v>
-      </c>
-      <c r="I6" t="n">
-        <v>104361.7757212027</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-7677.869132026812</v>
-      </c>
-      <c r="K6" t="n">
-        <v>98637.28648648513</v>
-      </c>
-      <c r="L6" t="n">
-        <v>98637.28648648501</v>
-      </c>
-      <c r="M6" t="n">
-        <v>98637.28648648507</v>
-      </c>
-      <c r="N6" t="n">
-        <v>98637.2864864851</v>
-      </c>
       <c r="O6" t="n">
-        <v>98637.28648648519</v>
+        <v>98637.28648648514</v>
       </c>
       <c r="P6" t="n">
-        <v>83869.68209928878</v>
+        <v>98637.28648648506</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.412126269295</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.412126269295</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692947</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34711,10 +34713,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,13 +34786,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>292.4705431688957</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34948,7 +34950,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>417.1838539570846</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35422,7 +35424,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>250.071647109874</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M12" t="n">
-        <v>330.4341341043856</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>274.1926243725203</v>
+        <v>128.0817426464304</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35732,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>529.2029588809055</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>93.70171839237514</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359627</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>330.434134104386</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>591.412126269295</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219557</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
@@ -36373,10 +36375,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>227.4725996515687</v>
       </c>
       <c r="M24" t="n">
-        <v>396.904887558667</v>
+        <v>591.412126269295</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>591.412126269295</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>390.9080150632263</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N27" t="n">
-        <v>302.9262961593793</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36844,10 +36846,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P29" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,7 +36919,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553806</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,13 +37083,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>34.48300429637442</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>98.29687095180005</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37318,10 +37320,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043861</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>274.1926243725203</v>
+        <v>128.0817426464304</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,19 +37630,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O39" t="n">
-        <v>347.5093868705979</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>181.2944783293118</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>330.4341341043865</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728937</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,19 +38022,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>406.3351562371461</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>406.3351562371461</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>406.3351562371461</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P44" t="n">
-        <v>27.30913373517882</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>122.2939224881001</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="N45" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>406.3351562371461</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467078.1130695313</v>
+        <v>461369.9572616452</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330058</v>
+        <v>10110391.89330059</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7579054.634363696</v>
+        <v>7579054.6343637</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>17.38422015325591</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>80.04750815110098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -791,13 +791,13 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>175.2139736830814</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126434</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>28.48969855726921</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -952,19 +952,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>356.8569451759032</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>79.48420598774121</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>142.7801127870463</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1232,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>7.755913384879197</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>134.1713099644706</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
@@ -1426,19 +1426,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>292.23405377024</v>
       </c>
     </row>
     <row r="12">
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.0813526230745</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>235.4551847859264</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1624,10 +1624,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>292.23405377024</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>176.4925410223831</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>393.0498909579815</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>39.03885150049273</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>97.61153143263792</v>
+        <v>114.7890777533882</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -2083,19 +2083,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>383.335069528581</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>396.6203742018776</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87.95308749070814</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>304.0074039714625</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>170.1833887905643</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X25" t="n">
-        <v>11.6920589909238</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>301.8024328110156</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>229.8974624879837</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67787267091628</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>6.844759653424604</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5504996888536</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>396.0777551965407</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>144.7467681673239</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>211.6928685184854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>40.26304875849094</v>
+        <v>283.7861955198935</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.07869429521006</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
@@ -3249,7 +3249,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>161.4085122120584</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>68.27776293721899</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -3328,10 +3328,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.308920675177417</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>167.8202982761259</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>326.0193144776939</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>262.1813739679208</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>339.9147695566699</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>230.0832060356394</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>21.69514016350492</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
@@ -3957,10 +3957,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.04391114827028</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -4042,7 +4042,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>288.033116328189</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>206.6890709537359</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1239.092355893942</v>
+        <v>1204.702119267128</v>
       </c>
       <c r="C2" t="n">
-        <v>845.9168543968727</v>
+        <v>1204.702119267128</v>
       </c>
       <c r="D2" t="n">
-        <v>460.4757256135405</v>
+        <v>1204.702119267128</v>
       </c>
       <c r="E2" t="n">
-        <v>460.4757256135405</v>
+        <v>802.118594383672</v>
       </c>
       <c r="F2" t="n">
-        <v>460.4757256135405</v>
+        <v>802.118594383672</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>388.9558388716751</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>64.87278843816574</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.421412053329</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2284.792436237683</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>2029.039706672282</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>2029.039706672282</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W2" t="n">
-        <v>2029.039706672282</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.587101605339</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.587101605339</v>
+        <v>1605.196864978524</v>
       </c>
     </row>
     <row r="3">
@@ -4403,40 +4403,40 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>850.6182020620834</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
         <v>2029.816973074021</v>
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4521,19 +4521,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>578.8255885061482</v>
+        <v>76.09044339171453</v>
       </c>
       <c r="C5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303752</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>1937.641433863168</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>1681.888704297767</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V5" t="n">
-        <v>1339.781895001286</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W5" t="n">
-        <v>979.320334217545</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X5" t="n">
-        <v>979.320334217545</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="Y5" t="n">
-        <v>979.320334217545</v>
+        <v>476.5851891031114</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K6" t="n">
-        <v>47.3129701015436</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>272.5108437565968</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631988</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>440.488471598613</v>
+        <v>933.9383038659041</v>
       </c>
       <c r="C8" t="n">
-        <v>47.31297010154359</v>
+        <v>540.7628023688346</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154359</v>
+        <v>540.7628023688346</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154359</v>
+        <v>540.7628023688346</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154359</v>
+        <v>540.7628023688346</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>127.6000468568378</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
         <v>406.2953261290054</v>
@@ -4813,43 +4813,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636596</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636596</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>1997.925566488064</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W8" t="n">
-        <v>1626.926531456352</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X8" t="n">
-        <v>1237.473926389409</v>
+        <v>1330.429012945303</v>
       </c>
       <c r="Y8" t="n">
-        <v>840.9832173100099</v>
+        <v>933.9383038659041</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565968</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631988</v>
+        <v>1029.265125924707</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
         <v>2341.731461975244</v>
@@ -4925,10 +4925,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2161.142036303752</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T11" t="n">
-        <v>1937.641433863168</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U11" t="n">
-        <v>1681.888704297767</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V11" t="n">
-        <v>1339.781895001286</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W11" t="n">
-        <v>968.7828599695731</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X11" t="n">
-        <v>579.3302549026299</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y11" t="n">
-        <v>182.839545823231</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L12" t="n">
-        <v>272.5108437565968</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631988</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769801</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360782</v>
+        <v>2331.51033082377</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2331.51033082377</v>
       </c>
       <c r="Q12" t="n">
         <v>2365.648505077179</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>374.8440228225815</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5226,25 +5226,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>794.1323637308997</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>794.1323637308997</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>794.1323637308997</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>794.1323637308997</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>794.1323637308997</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>560.0520415138827</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>560.0520415138827</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2365.648505077179</v>
+        <v>1575.139601866251</v>
       </c>
       <c r="C14" t="n">
-        <v>2127.814985091395</v>
+        <v>1575.139601866251</v>
       </c>
       <c r="D14" t="n">
-        <v>1742.373856308063</v>
+        <v>1575.139601866251</v>
       </c>
       <c r="E14" t="n">
-        <v>1339.790331424607</v>
+        <v>1172.556076982795</v>
       </c>
       <c r="F14" t="n">
-        <v>922.895892954585</v>
+        <v>755.6616385127728</v>
       </c>
       <c r="G14" t="n">
-        <v>509.7331374425881</v>
+        <v>342.4988830007759</v>
       </c>
       <c r="H14" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749184</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>850.6182020620834</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
         <v>1209.14176221491</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>770.4846986810929</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>770.4846986810929</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T17" t="n">
-        <v>2199.13495001823</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U17" t="n">
-        <v>1943.382220452829</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V17" t="n">
-        <v>1601.275411156347</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="W17" t="n">
-        <v>1230.276376124635</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="X17" t="n">
-        <v>840.8237710576915</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="Y17" t="n">
-        <v>444.3330619782926</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K18" t="n">
-        <v>140.077671309995</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L18" t="n">
-        <v>623.6437572083082</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5639,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>850.162486145482</v>
+        <v>832.8114292558353</v>
       </c>
       <c r="U19" t="n">
-        <v>564.7236943873829</v>
+        <v>547.3726374977363</v>
       </c>
       <c r="V19" t="n">
-        <v>564.7236943873829</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="W19" t="n">
         <v>281.3932923185605</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1226.556240989903</v>
+        <v>837.1036359229597</v>
       </c>
       <c r="C20" t="n">
-        <v>833.3807394928331</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="D20" t="n">
-        <v>447.9396107095008</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E20" t="n">
-        <v>447.9396107095008</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F20" t="n">
-        <v>447.9396107095008</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G20" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.3129701015436</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
         <v>2365.64850507718</v>
@@ -5788,16 +5788,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>2023.541695780698</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W20" t="n">
-        <v>2023.541695780698</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="X20" t="n">
-        <v>2023.541695780698</v>
+        <v>1634.089090713755</v>
       </c>
       <c r="Y20" t="n">
-        <v>1627.0509867013</v>
+        <v>1237.598381634357</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
         <v>429.4892645340348</v>
@@ -5822,37 +5822,37 @@
         <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.997640489031</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>530.879055999857</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>858.0088487631991</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769801</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
         <v>2341.731461975244</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825358</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>306.3595905514212</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>136.1544726174104</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>714.6796704260792</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>491.5676092427225</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2058.57031924742</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="C23" t="n">
-        <v>1665.394817750351</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="D23" t="n">
-        <v>1279.953688967018</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E23" t="n">
-        <v>877.3701640835627</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F23" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G23" t="n">
-        <v>47.3129701015436</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H23" t="n">
-        <v>47.3129701015436</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I23" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.3129701015436</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>358.4764287842798</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L23" t="n">
-        <v>851.7967205028086</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M23" t="n">
-        <v>1397.797620547389</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N23" t="n">
-        <v>1925.608904184851</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
         <v>2365.64850507718</v>
@@ -6016,25 +6016,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.64850507718</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.64850507718</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="X23" t="n">
-        <v>2365.64850507718</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="Y23" t="n">
-        <v>2365.64850507718</v>
+        <v>1803.731934657886</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K24" t="n">
-        <v>47.3129701015436</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>272.5108437565966</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>858.0088487631987</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N24" t="n">
-        <v>1443.506853769801</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O24" t="n">
-        <v>1960.027136360782</v>
+        <v>1952.636489659666</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2358.257858376064</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1945.518264605629</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>1775.313146671618</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.64850507718</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.64850507718</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.64850507718</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W25" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>2353.838344480287</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>2130.72628329693</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1089.409718280399</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="C26" t="n">
-        <v>1089.409718280399</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="D26" t="n">
-        <v>784.5587760470498</v>
+        <v>1158.847234991382</v>
       </c>
       <c r="E26" t="n">
-        <v>784.5587760470498</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F26" t="n">
-        <v>784.5587760470498</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N26" t="n">
-        <v>1832.615452804709</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O26" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T26" t="n">
-        <v>2142.147902636596</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U26" t="n">
-        <v>1886.395173071195</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V26" t="n">
-        <v>1886.395173071195</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W26" t="n">
-        <v>1886.395173071195</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="X26" t="n">
-        <v>1886.395173071195</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="Y26" t="n">
-        <v>1489.904463991796</v>
+        <v>1544.288363774714</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L27" t="n">
-        <v>272.5108437565968</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631988</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
         <v>2341.731461975244</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.7599926430961</v>
+        <v>373.0769001763519</v>
       </c>
       <c r="C28" t="n">
-        <v>948.7599926430961</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="D28" t="n">
-        <v>847.4030175052487</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E28" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6417,19 +6417,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V28" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W28" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X28" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.7599926430961</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1673.129190464088</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="C29" t="n">
-        <v>1279.953688967018</v>
+        <v>1326.706116515177</v>
       </c>
       <c r="D29" t="n">
-        <v>1279.953688967018</v>
+        <v>1326.706116515177</v>
       </c>
       <c r="E29" t="n">
-        <v>877.3701640835627</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F29" t="n">
-        <v>460.4757256135405</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
         <v>406.2953261290054</v>
@@ -6472,43 +6472,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T29" t="n">
-        <v>2199.13495001823</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U29" t="n">
-        <v>1943.382220452829</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V29" t="n">
-        <v>1943.382220452829</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W29" t="n">
-        <v>1943.382220452829</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X29" t="n">
-        <v>1943.382220452829</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="Y29" t="n">
-        <v>1943.382220452829</v>
+        <v>1719.881618012246</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K30" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L30" t="n">
-        <v>963.7331842818107</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M30" t="n">
-        <v>1443.506853769801</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769801</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>217.5180880355544</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6651,22 +6651,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4295905742738</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X31" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.5180880355544</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>866.5993466026432</v>
+        <v>1542.887474741433</v>
       </c>
       <c r="C32" t="n">
-        <v>473.4238451055738</v>
+        <v>1149.711973244363</v>
       </c>
       <c r="D32" t="n">
-        <v>87.98271632224152</v>
+        <v>1149.711973244363</v>
       </c>
       <c r="E32" t="n">
-        <v>87.98271632224152</v>
+        <v>747.1284483609077</v>
       </c>
       <c r="F32" t="n">
-        <v>87.98271632224152</v>
+        <v>747.1284483609077</v>
       </c>
       <c r="G32" t="n">
-        <v>87.98271632224152</v>
+        <v>333.9656928489108</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L32" t="n">
-        <v>318.7636682303378</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M32" t="n">
-        <v>864.7645682749184</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N32" t="n">
-        <v>1392.57585191238</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.615452804709</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.648505077179</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V32" t="n">
-        <v>2023.541695780698</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W32" t="n">
-        <v>1652.542660748985</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="X32" t="n">
-        <v>1263.090055682042</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="Y32" t="n">
-        <v>866.5993466026432</v>
+        <v>1943.38222045283</v>
       </c>
     </row>
     <row r="33">
@@ -6773,16 +6773,16 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L33" t="n">
         <v>530.8790559998569</v>
@@ -6794,7 +6794,7 @@
         <v>1701.875066013061</v>
       </c>
       <c r="O33" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P33" t="n">
         <v>2365.648505077179</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6882,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>622.0429194582225</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U34" t="n">
-        <v>336.6041277001235</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V34" t="n">
-        <v>70.62478252094769</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.62478252094769</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.351871325845</v>
+        <v>981.2840996363659</v>
       </c>
       <c r="C35" t="n">
-        <v>210.351871325845</v>
+        <v>981.2840996363659</v>
       </c>
       <c r="D35" t="n">
-        <v>47.31297010154359</v>
+        <v>981.2840996363659</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154359</v>
+        <v>578.7005747529104</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.648505077179</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U35" t="n">
-        <v>2109.895775511778</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V35" t="n">
-        <v>1767.788966215297</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W35" t="n">
-        <v>1396.789931183584</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="X35" t="n">
-        <v>1007.337326116641</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="Y35" t="n">
-        <v>610.8466170372419</v>
+        <v>981.2840996363659</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154343</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154343</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154343</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8790559998566</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.377061006458</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.648505077179</v>
@@ -7058,10 +7058,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X36" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1784.555132309383</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>1784.555132309383</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>1784.555132309383</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>1628.996320168585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>1628.996320168585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>1628.996320168585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1627.674178072447</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1494.579752709525</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2241.747515709756</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>2241.747515709756</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>2241.747515709756</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>2241.747515709756</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V37" t="n">
-        <v>2241.747515709756</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W37" t="n">
-        <v>2241.747515709756</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X37" t="n">
-        <v>2007.66719349274</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>1784.555132309383</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>216.8284229057112</v>
+        <v>1390.569179145889</v>
       </c>
       <c r="C38" t="n">
-        <v>216.8284229057112</v>
+        <v>1390.569179145889</v>
       </c>
       <c r="D38" t="n">
-        <v>216.8284229057112</v>
+        <v>1005.128050362556</v>
       </c>
       <c r="E38" t="n">
-        <v>216.8284229057112</v>
+        <v>602.544525479101</v>
       </c>
       <c r="F38" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>864.7645682749184</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N38" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T38" t="n">
-        <v>1975.634347577647</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U38" t="n">
-        <v>1719.881618012245</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V38" t="n">
-        <v>1377.774808715764</v>
+        <v>1390.569179145889</v>
       </c>
       <c r="W38" t="n">
-        <v>1006.775773684051</v>
+        <v>1390.569179145889</v>
       </c>
       <c r="X38" t="n">
-        <v>617.3231686171081</v>
+        <v>1390.569179145889</v>
       </c>
       <c r="Y38" t="n">
-        <v>617.3231686171081</v>
+        <v>1390.569179145889</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
         <v>160.427952321271</v>
@@ -7262,7 +7262,7 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>963.7331842818107</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N39" t="n">
         <v>1209.14176221491</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>371.045575040604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7362,22 +7362,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V40" t="n">
-        <v>683.9303219684286</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W40" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X40" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>783.8367236760574</v>
+        <v>973.6747406758666</v>
       </c>
       <c r="C41" t="n">
-        <v>390.661222178988</v>
+        <v>973.6747406758666</v>
       </c>
       <c r="D41" t="n">
-        <v>47.31297010154359</v>
+        <v>588.2336118925343</v>
       </c>
       <c r="E41" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K41" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L41" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M41" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N41" t="n">
-        <v>2118.077574438405</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T41" t="n">
-        <v>2142.147902636596</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U41" t="n">
-        <v>1886.395173071195</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V41" t="n">
-        <v>1544.288363774713</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W41" t="n">
-        <v>1173.289328743001</v>
+        <v>1363.12734574281</v>
       </c>
       <c r="X41" t="n">
-        <v>783.8367236760574</v>
+        <v>973.6747406758666</v>
       </c>
       <c r="Y41" t="n">
-        <v>783.8367236760574</v>
+        <v>973.6747406758666</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
         <v>160.427952321271</v>
@@ -7502,7 +7502,7 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N42" t="n">
-        <v>2134.729194295015</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O42" t="n">
         <v>2365.648505077179</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7596,25 +7596,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T43" t="n">
-        <v>713.0409408113302</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U43" t="n">
-        <v>427.6021490532311</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6228038740554</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154359</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>224.7860652357804</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.012650815455</v>
+        <v>571.091215792411</v>
       </c>
       <c r="C44" t="n">
-        <v>756.8371493183852</v>
+        <v>571.091215792411</v>
       </c>
       <c r="D44" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="E44" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F44" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G44" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L44" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N44" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2342.371827149634</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T44" t="n">
-        <v>2118.87122470905</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U44" t="n">
-        <v>1863.118495143649</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V44" t="n">
-        <v>1521.011685847167</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W44" t="n">
-        <v>1150.012650815455</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X44" t="n">
-        <v>1150.012650815455</v>
+        <v>971.585961503808</v>
       </c>
       <c r="Y44" t="n">
-        <v>1150.012650815455</v>
+        <v>971.585961503808</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
         <v>160.427952321271</v>
@@ -7736,13 +7736,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>1443.506853769801</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.506853769801</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O45" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P45" t="n">
         <v>2365.648505077179</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7830,28 +7830,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>539.420211517574</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>330.643372170366</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154359</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7993,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>447.5171231095472</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8224,19 +8224,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,19 +8297,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>614.575071735073</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8461,19 +8461,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>559.0064165671349</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>481.5498369029709</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8701,16 +8701,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>125.4711574522872</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8929,16 +8929,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>281.329912376922</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9008,16 +9008,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095472</v>
+        <v>179.0738312465417</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9166,7 +9166,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9178,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9242,16 +9242,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>183.2986537257085</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9415,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600592</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9482,22 +9482,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>422.821256153698</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234616</v>
+        <v>502.5559668112504</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>457.3649271011931</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9655,10 +9655,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9719,16 +9719,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>317.5329465084869</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186068</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234616</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>98.45345285401062</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9883,19 +9883,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>506.8283140129063</v>
       </c>
       <c r="N26" t="n">
-        <v>540.0265064010104</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9959,13 +9959,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186067</v>
+        <v>186.0888404416877</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10120,13 +10120,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>701.2411122488187</v>
+        <v>652.9391957389953</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>577.0069902189988</v>
+        <v>422.8212561536983</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10354,7 +10354,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10363,13 +10363,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>556.6502691852513</v>
       </c>
       <c r="P32" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10436,16 +10436,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>353.4472259067887</v>
       </c>
       <c r="P33" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10588,7 +10588,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10600,13 +10600,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>277.8952841518222</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
@@ -10673,19 +10673,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>593.5689418267916</v>
       </c>
       <c r="N36" t="n">
-        <v>415.8062469585528</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10825,16 +10825,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>281.329912376922</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10910,10 +10910,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118428</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
@@ -11074,7 +11074,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>399.6354845339695</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P41" t="n">
         <v>150.3014472409252</v>
@@ -11147,13 +11147,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234615</v>
+        <v>388.298409013546</v>
       </c>
       <c r="O42" t="n">
-        <v>325.9393879617826</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>87.08336481931465</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11311,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11384,16 +11384,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>577.0069902189988</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>388.298409013546</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22549,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>119.5695255852039</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,16 +22600,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>141.2180882650765</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,16 +22761,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>360.7540479248295</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -22804,7 +22804,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>10.4320995054922</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,16 +22995,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23035,10 +23035,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>241.358013941433</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23071,19 +23071,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>195.9056284164704</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>146.3208685816312</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.3184882898123</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23266,13 +23266,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>100.2917482183649</v>
       </c>
     </row>
     <row r="12">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>47.70657035620167</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -23481,7 +23481,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>153.7885616961723</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>28.60816615893424</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>56.86932029106509</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.439907296301385</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23740,13 +23740,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>299.646889703024</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23943,16 +23943,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>135.7503298808103</v>
+        <v>118.57278356006</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5.908676953517727</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>12.41075375499923</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24034,7 +24034,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>66.12369447580225</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.48239428282045</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>83.0118134791831</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24381,7 +24381,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X25" t="n">
-        <v>220.0474600039229</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>79.78428468448334</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>168.6602271466372</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -24511,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>176.5111788509637</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.9392985654293</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.479934438080193</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24891,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>135.7503298808102</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.188072053037644</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>280.5791711706833</v>
+        <v>37.05602440928072</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24967,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>6.995793176949014</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>220.1782052834405</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>344.447731148103</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25329,13 +25329,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>152.6148448529435</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>200.7879229792761</v>
@@ -25368,19 +25368,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>244.9051958091961</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
@@ -25411,7 +25411,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>12.66642672582287</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25557,16 +25557,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25602,16 +25602,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.138177759463247</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25630,13 +25630,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>41.67194793882902</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -25648,7 +25648,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>137.205838645756</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>132.3816418030055</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25836,7 +25836,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>141.8045083600897</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>97.52496268808471</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>200.7879229792761</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>56.63048077364809</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>655450.4938330719</v>
+        <v>655450.4938330726</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655450.4938330719</v>
+        <v>655450.4938330726</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655450.4938330723</v>
+        <v>655450.4938330726</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655450.4938330719</v>
+        <v>655450.4938330717</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655450.4938330718</v>
+        <v>655450.4938330726</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655450.4938330724</v>
+        <v>655450.4938330725</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655450.4938330721</v>
+        <v>655450.4938330726</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>655450.4938330719</v>
+        <v>655450.4938330725</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655450.4938330718</v>
+        <v>655450.4938330719</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655450.4938330723</v>
+        <v>655450.4938330725</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655450.4938330723</v>
+        <v>655450.4938330725</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655450.4938330721</v>
+        <v>655450.4938330726</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655450.4938330723</v>
+        <v>655450.4938330726</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>655450.4938330724</v>
+        <v>655450.4938330726</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>169394.3482070292</v>
       </c>
       <c r="C2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="D2" t="n">
         <v>169394.3482070292</v>
@@ -26328,16 +26328,16 @@
         <v>169394.3482070292</v>
       </c>
       <c r="G2" t="n">
+        <v>169394.3482070293</v>
+      </c>
+      <c r="H2" t="n">
         <v>169394.3482070292</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>169394.3482070293</v>
       </c>
-      <c r="I2" t="n">
-        <v>169394.3482070292</v>
-      </c>
       <c r="J2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="K2" t="n">
         <v>169394.3482070292</v>
@@ -26346,10 +26346,10 @@
         <v>169394.3482070292</v>
       </c>
       <c r="M2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="N2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="O2" t="n">
         <v>169394.3482070293</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656033</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>34799.20444337101</v>
       </c>
       <c r="C4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="D4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="E4" t="n">
         <v>34799.20444337101</v>
@@ -26432,7 +26432,7 @@
         <v>34799.20444337101</v>
       </c>
       <c r="G4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="H4" t="n">
         <v>34799.20444337102</v>
@@ -26441,19 +26441,19 @@
         <v>34799.20444337101</v>
       </c>
       <c r="J4" t="n">
-        <v>34799.204443371</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="K4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="L4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="M4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="N4" t="n">
-        <v>34799.204443371</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="O4" t="n">
         <v>34799.20444337101</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133186.1195052598</v>
+        <v>-133860.1456314799</v>
       </c>
       <c r="C6" t="n">
-        <v>65009.68648648506</v>
+        <v>64335.66036026506</v>
       </c>
       <c r="D6" t="n">
-        <v>65009.68648648509</v>
+        <v>64335.66036026503</v>
       </c>
       <c r="E6" t="n">
-        <v>98637.28648648503</v>
+        <v>97963.26036026503</v>
       </c>
       <c r="F6" t="n">
-        <v>98637.28648648509</v>
+        <v>97963.26036026503</v>
       </c>
       <c r="G6" t="n">
-        <v>98637.28648648503</v>
+        <v>97963.26036026506</v>
       </c>
       <c r="H6" t="n">
-        <v>98637.2864864851</v>
+        <v>97963.26036026503</v>
       </c>
       <c r="I6" t="n">
-        <v>98637.28648648501</v>
+        <v>97963.26036026506</v>
       </c>
       <c r="J6" t="n">
-        <v>-56102.1478791183</v>
+        <v>-56776.17400533834</v>
       </c>
       <c r="K6" t="n">
-        <v>98637.28648648509</v>
+        <v>97963.26036026503</v>
       </c>
       <c r="L6" t="n">
-        <v>98637.28648648509</v>
+        <v>97963.26036026501</v>
       </c>
       <c r="M6" t="n">
-        <v>98637.28648648506</v>
+        <v>97963.26036026515</v>
       </c>
       <c r="N6" t="n">
-        <v>98637.28648648507</v>
+        <v>97963.26036026506</v>
       </c>
       <c r="O6" t="n">
-        <v>98637.28648648514</v>
+        <v>97963.26036026506</v>
       </c>
       <c r="P6" t="n">
-        <v>98637.28648648506</v>
+        <v>97963.26036026503</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.412126269295</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.412126269295</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692947</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34713,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34944,19 +34944,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>529.2029588809064</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35181,19 +35181,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>409.2813649694077</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>389.1627148536589</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35421,16 +35421,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>34.48300429637322</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>128.0817426464304</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553806</v>
+        <v>93.701718392375</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
@@ -35898,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>93.70171839237514</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36135,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359627</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>330.434134104386</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>591.412126269295</v>
+        <v>417.1838539570837</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>314.3065239219557</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36375,10 +36375,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>227.4725996515687</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.412126269295</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>591.412126269295</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>7.465299698096623</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36603,19 +36603,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>357.103262415179</v>
       </c>
       <c r="N26" t="n">
-        <v>390.9080150632263</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692948</v>
+        <v>93.7017183923758</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>503.2141441412681</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>484.6198681696869</v>
+        <v>330.4341341043864</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37074,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37083,13 +37083,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>407.086431761155</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>260.7596670178999</v>
       </c>
       <c r="P33" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37320,13 +37320,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>127.593836910897</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>501.1818197774797</v>
       </c>
       <c r="N36" t="n">
-        <v>330.4341341043861</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>128.0817426464304</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37630,10 +37630,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576762</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37794,7 +37794,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>250.0716471098731</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692948</v>
+        <v>302.9262961593793</v>
       </c>
       <c r="O42" t="n">
-        <v>233.2518290728937</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38031,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>484.6198681696869</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>302.9262961593793</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
